--- a/WAKTU.xlsx
+++ b/WAKTU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B08A7-DB84-4DAA-9D57-521C4AFD9417}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4621AB0-274F-437D-BB74-FDDC06B0DB69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3C1B3EEB-B7B2-4E39-B7D1-22138F24BB6D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Node</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t xml:space="preserve">MH5NR OUT </t>
+  </si>
+  <si>
+    <t>Reliable Indoor</t>
+  </si>
+  <si>
+    <t>Reliable Outdoor</t>
+  </si>
+  <si>
+    <t>Non Reliable Indoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Reliable Outdoor </t>
+  </si>
+  <si>
+    <t>Lama Penerimaan (Menit)</t>
   </si>
 </sst>
 </file>
@@ -135,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -143,12 +158,274 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,23 +740,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FE3F11-F3DE-4CE3-87F3-5901C0E27EC3}">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -508,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -537,7 +822,7 @@
         <v>6.44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -566,7 +851,7 @@
         <v>8.19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -594,8 +879,17 @@
       <c r="I5">
         <v>8.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -623,8 +917,38 @@
       <c r="I6">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="N7" s="2">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="O7" s="2">
+        <v>6.46</v>
+      </c>
+      <c r="P7" s="4">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -652,8 +976,23 @@
       <c r="I8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>14.32</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6.46</v>
+      </c>
+      <c r="P8" s="6">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -681,8 +1020,23 @@
       <c r="I9">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="N9" s="1">
+        <v>8.09</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6.46</v>
+      </c>
+      <c r="P9" s="6">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -710,8 +1064,23 @@
       <c r="I10">
         <v>8.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="8">
+        <v>14.54</v>
+      </c>
+      <c r="N10" s="8">
+        <v>14.56</v>
+      </c>
+      <c r="O10" s="8">
+        <v>6.43</v>
+      </c>
+      <c r="P10" s="9">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -740,7 +1109,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -769,7 +1138,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -798,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -827,7 +1196,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -915,6 +1284,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WAKTU.xlsx
+++ b/WAKTU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4621AB0-274F-437D-BB74-FDDC06B0DB69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1275A92E-F265-43A0-9C25-925313101977}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3C1B3EEB-B7B2-4E39-B7D1-22138F24BB6D}"/>
   </bookViews>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">Non Reliable Outdoor </t>
   </si>
   <si>
-    <t>Lama Penerimaan (Menit)</t>
+    <t>Waktu Menerima 1000 Sequence Number  Dalam Menit</t>
   </si>
 </sst>
 </file>
@@ -405,26 +405,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,7 +743,7 @@
   <dimension ref="A2:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +851,7 @@
         <v>8.19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="I5">
         <v>8.58</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="14" t="s">
@@ -917,17 +917,17 @@
       <c r="I6">
         <v>8.5</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="11" t="s">
         <v>32</v>
       </c>
     </row>
